--- a/BOM/BOM-chamarande.xlsx
+++ b/BOM/BOM-chamarande.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Chamarande - Part List</t>
   </si>
@@ -149,7 +149,23 @@
     <t>jumpers</t>
   </si>
   <si>
-    <t>Fils de connexion Premium Male/Male Fils de connexion (10cm / 20cm / 30cm)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Fils de connexion Male/Male 40 pins – </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>10cm</t>
+    </r>
   </si>
   <si>
     <r>
@@ -159,7 +175,67 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>https://www.mouser.fr/ProductDetail/Adafruit/1957/?qs=sGAEpiMZZMsMyYRRhGMFNuxXoOtkvGWsV3ZNDI6E%2fp8%3d</t>
+      <t>https://hackspark.fr/fr/dual-male-splittable-jumper-wires-100mm-40-pins.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Fils de connexion Male/Male 40 pins – </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>20cm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>https://hackspark.fr/fr/electronique/splittable-jumper-wires-200mm-40-pins.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Fils de connexion Male/Male 40 pins – </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>30cm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>https://hackspark.fr/fr/dual-male-splittable-jumper-wires-300mm-40-pins.html</t>
     </r>
   </si>
   <si>
@@ -242,6 +318,23 @@
         <rFont val="Helvetica"/>
       </rPr>
       <t>https://www.mouser.fr/ProductDetail/Adafruit/2011/?qs=sGAEpiMZZMsMyYRRhGMFNq0TFk7%252brIF28v0lJ2Plhn8%3d</t>
+    </r>
+  </si>
+  <si>
+    <t>Cable USB Mirco</t>
+  </si>
+  <si>
+    <t>Câbles Micro USB de 30 cm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>https://www.amazon.fr/câbles-Anker-PowerLine-Câbles-Micro/dp/B016BEVNK4/ref=sr_1_1?ie=UTF8&amp;qid=1513083839&amp;sr=8-1&amp;keywords=cable+usb+micro+usb+30cm</t>
     </r>
   </si>
   <si>
@@ -458,7 +551,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -536,12 +629,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1681,7 +1768,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="C5" xSplit="2" ySplit="4" activePane="bottomRight" state="frozen"/>
@@ -1736,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1789,14 +1876,14 @@
       <c r="D5" s="14"/>
       <c r="E5" s="15">
         <f>1*C3</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F5" s="15">
         <v>10.63</v>
       </c>
       <c r="G5" s="15">
         <f>F5*E5</f>
-        <v>10.63</v>
+        <v>212.6</v>
       </c>
       <c r="H5" t="s" s="16">
         <v>14</v>
@@ -1817,14 +1904,14 @@
       <c r="D6" s="21"/>
       <c r="E6" s="22">
         <f>1*C3</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F6" s="22">
         <v>12.71</v>
       </c>
       <c r="G6" s="22">
         <f>F6*E6</f>
-        <v>12.71</v>
+        <v>254.2</v>
       </c>
       <c r="H6" t="s" s="23">
         <v>17</v>
@@ -1845,14 +1932,14 @@
       <c r="D7" s="21"/>
       <c r="E7" s="22">
         <f>3*C3</f>
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22">
         <v>3.36</v>
       </c>
       <c r="G7" s="22">
         <f>F7*E7</f>
-        <v>10.08</v>
+        <v>201.6</v>
       </c>
       <c r="H7" t="s" s="23">
         <v>20</v>
@@ -1873,14 +1960,14 @@
       <c r="D8" s="21"/>
       <c r="E8" s="22">
         <f>1*C3</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F8" s="22">
         <v>5.08</v>
       </c>
       <c r="G8" s="22">
         <f>F8*E8</f>
-        <v>5.08</v>
+        <v>101.6</v>
       </c>
       <c r="H8" t="s" s="23">
         <v>23</v>
@@ -1900,15 +1987,15 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22">
-        <f>C3</f>
-        <v>1</v>
+        <f t="shared" si="8" ref="E9:E11">ROUNDUP($C$3/4,0)</f>
+        <v>5</v>
       </c>
       <c r="F9" s="22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="22">
         <f>F9*E9</f>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s" s="23">
         <v>26</v>
@@ -1918,7 +2005,7 @@
       </c>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" ht="93.55" customHeight="1">
+    <row r="10" ht="71.05" customHeight="1">
       <c r="A10" s="18">
         <v>6</v>
       </c>
@@ -1928,15 +2015,15 @@
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="22">
-        <f>C3</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="F10" s="22">
-        <v>6.08</v>
+        <v>5</v>
       </c>
       <c r="G10" s="22">
         <f>F10*E10</f>
-        <v>6.08</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s" s="23">
         <v>28</v>
@@ -1946,146 +2033,218 @@
       </c>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" ht="96.2" customHeight="1">
+    <row r="11" ht="71.05" customHeight="1">
       <c r="A11" s="18">
         <v>7</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" t="s" s="20">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="22">
-        <f>C3</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="F11" s="22">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G11" s="22">
         <f>F11*E11</f>
-        <v>24</v>
-      </c>
-      <c r="H11" t="s" s="25">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s" s="23">
         <v>31</v>
-      </c>
-      <c r="I11" t="s" s="23">
-        <v>32</v>
       </c>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" ht="84.5" customHeight="1">
+    <row r="12" ht="93.55" customHeight="1">
       <c r="A12" s="18">
         <v>8</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" t="s" s="20">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="22">
-        <f>C3</f>
-        <v>1</v>
+        <f>ROUNDUP(C3/8,0)</f>
+        <v>3</v>
       </c>
       <c r="F12" s="22">
-        <v>15.5</v>
+        <v>6.08</v>
       </c>
       <c r="G12" s="22">
         <f>F12*E12</f>
-        <v>15.5</v>
+        <v>18.24</v>
       </c>
       <c r="H12" t="s" s="23">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s" s="23">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" ht="84.5" customHeight="1">
+    <row r="13" ht="96.2" customHeight="1">
       <c r="A13" s="18">
         <v>9</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" t="s" s="20">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="22">
         <f>C3</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F13" s="22">
-        <v>14.4</v>
+        <v>24</v>
       </c>
       <c r="G13" s="22">
         <f>F13*E13</f>
-        <v>14.4</v>
-      </c>
-      <c r="H13" t="s" s="23">
-        <v>37</v>
+        <v>480</v>
+      </c>
+      <c r="H13" t="s" s="25">
+        <v>35</v>
       </c>
       <c r="I13" t="s" s="23">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" ht="68.45" customHeight="1">
+    <row r="14" ht="84.5" customHeight="1">
       <c r="A14" s="18">
         <v>10</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" t="s" s="20">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="22">
         <f>C3</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F14" s="22">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="G14" s="22">
         <f>F14*E14</f>
-        <v>12.5</v>
+        <v>310</v>
       </c>
       <c r="H14" t="s" s="23">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="23">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" ht="37.45" customHeight="1">
-      <c r="A15" s="26"/>
+    <row r="15" ht="84.5" customHeight="1">
+      <c r="A15" s="18">
+        <v>11</v>
+      </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="27"/>
+      <c r="C15" t="s" s="20">
+        <v>40</v>
+      </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
+      <c r="E15" s="22">
+        <f>C3</f>
+        <v>20</v>
+      </c>
+      <c r="F15" s="22">
+        <v>14.4</v>
+      </c>
+      <c r="G15" s="22">
+        <f>F15*E15</f>
+        <v>288</v>
+      </c>
+      <c r="H15" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s" s="23">
+        <v>42</v>
+      </c>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" t="s" s="32">
-        <v>42</v>
-      </c>
-      <c r="G16" s="33">
-        <f>SUM(G5:G14)</f>
-        <v>117.98</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+    <row r="16" ht="68.45" customHeight="1">
+      <c r="A16" s="18">
+        <v>12</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" t="s" s="20">
+        <v>43</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22">
+        <f>C3</f>
+        <v>20</v>
+      </c>
+      <c r="F16" s="22">
+        <v>12.5</v>
+      </c>
+      <c r="G16" s="22">
+        <f>F16*E16</f>
+        <v>250</v>
+      </c>
+      <c r="H16" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" ht="87.9" customHeight="1">
+      <c r="A17" s="18">
+        <v>13</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" t="s" s="20">
+        <v>46</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22">
+        <f>ROUNDUP(C3/4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="22">
+        <v>7.99</v>
+      </c>
+      <c r="G17" s="22">
+        <f>F17*E17</f>
+        <v>39.95</v>
+      </c>
+      <c r="H17" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" ht="20.35" customHeight="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" t="s" s="30">
+        <v>49</v>
+      </c>
+      <c r="G18" s="31">
+        <f>SUM(G5:G17)</f>
+        <v>2231.19</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2104,6 +2263,9 @@
     <hyperlink ref="I12" r:id="rId9" location="" tooltip="" display=""/>
     <hyperlink ref="I13" r:id="rId10" location="" tooltip="" display=""/>
     <hyperlink ref="I14" r:id="rId11" location="" tooltip="" display=""/>
+    <hyperlink ref="I15" r:id="rId12" location="" tooltip="" display=""/>
+    <hyperlink ref="I16" r:id="rId13" location="" tooltip="" display=""/>
+    <hyperlink ref="I17" r:id="rId14" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/BOM/BOM-chamarande.xlsx
+++ b/BOM/BOM-chamarande.xlsx
@@ -334,7 +334,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>https://www.amazon.fr/câbles-Anker-PowerLine-Câbles-Micro/dp/B016BEVNK4/ref=sr_1_1?ie=UTF8&amp;qid=1513083839&amp;sr=8-1&amp;keywords=cable+usb+micro+usb+30cm</t>
+      <t>https://www.amazon.fr/câbles-Anker-PowerLine-Câbles-Micro/dp/B016BFFV6K/ref=sr_1_1?ie=UTF8&amp;qid=1513083839&amp;sr=8-1&amp;keywords=cable%2Busb%2Bmicro%2Busb%2B30cm&amp;th=1</t>
     </r>
   </si>
   <si>
@@ -2211,15 +2211,15 @@
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="22">
-        <f>ROUNDUP(C3/4,0)</f>
-        <v>5</v>
+        <f>ROUNDUP(C3/3,0)</f>
+        <v>7</v>
       </c>
       <c r="F17" s="22">
-        <v>7.99</v>
+        <v>9.99</v>
       </c>
       <c r="G17" s="22">
         <f>F17*E17</f>
-        <v>39.95</v>
+        <v>69.93000000000001</v>
       </c>
       <c r="H17" t="s" s="23">
         <v>47</v>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="G18" s="31">
         <f>SUM(G5:G17)</f>
-        <v>2231.19</v>
+        <v>2261.17</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
